--- a/public/excel_files/Professor.xlsx
+++ b/public/excel_files/Professor.xlsx
@@ -11,174 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Maria Luísa Pedro Brito da Torre</t>
+    <t>Yliana De Sousa Serrão</t>
   </si>
   <si>
-    <t>123456789@gmail.com</t>
+    <t>ylianadesousa@gmail.com</t>
   </si>
   <si>
-    <t>123456789b</t>
+    <t>852461379b</t>
   </si>
   <si>
-    <t>pwdam</t>
+    <t>II</t>
   </si>
   <si>
-    <t>IRC</t>
+    <t>IM</t>
   </si>
   <si>
-    <t>Júlia Maria da Rocha Vilaverde Justino</t>
+    <t>FPOO</t>
   </si>
   <si>
-    <t>235689741@gmail.com</t>
+    <t>CIC</t>
   </si>
   <si>
-    <t>235689741b</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>FPA</t>
-  </si>
-  <si>
-    <t>Elisabete Cristina Simões Lopes</t>
-  </si>
-  <si>
-    <t>102543687@gmail.com</t>
-  </si>
-  <si>
-    <t>102543687b</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>Paula Cristina Rodrigues Miranda</t>
-  </si>
-  <si>
-    <t>159126321@gmail.com</t>
-  </si>
-  <si>
-    <t>159126321b</t>
-  </si>
-  <si>
-    <t>EMII</t>
-  </si>
-  <si>
-    <t>Luís Miguel Lopes de Oliveira Esteves</t>
-  </si>
-  <si>
-    <t>123456871@gmail.com</t>
-  </si>
-  <si>
-    <t>123456871b</t>
-  </si>
-  <si>
-    <t>TGA</t>
-  </si>
-  <si>
-    <t>GECO</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>António Paulo Duarte Gomes de Abreu</t>
-  </si>
-  <si>
-    <t>456781235@gmial.com</t>
-  </si>
-  <si>
-    <t>456781235b</t>
-  </si>
-  <si>
-    <t>Manuel Mota Ferreira</t>
-  </si>
-  <si>
-    <t>581324610@gmail.com</t>
-  </si>
-  <si>
-    <t>581324610b</t>
-  </si>
-  <si>
-    <t>RSI</t>
-  </si>
-  <si>
-    <t>Vítor Manuel Teles Rodrigues</t>
-  </si>
-  <si>
-    <t>468134129@gmail.com</t>
-  </si>
-  <si>
-    <t>468134129b</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Dulce Helena Pereira Costa</t>
-  </si>
-  <si>
-    <t>687459213@gmail.com</t>
-  </si>
-  <si>
-    <t>687459213b</t>
-  </si>
-  <si>
-    <t>Jorge Manuel Martins</t>
-  </si>
-  <si>
-    <t>594751364@gmail.com</t>
-  </si>
-  <si>
-    <t>594751364b</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>José Garcia Costa Correia de Sousa</t>
-  </si>
-  <si>
-    <t>254163987@gmail.com</t>
-  </si>
-  <si>
-    <t>254163987b</t>
-  </si>
-  <si>
-    <t>Fernando Manuel Valente</t>
-  </si>
-  <si>
-    <t>654751239@gmail.com</t>
-  </si>
-  <si>
-    <t>654751239b</t>
-  </si>
-  <si>
-    <t>REID</t>
-  </si>
-  <si>
-    <t>Dina Maria Morgado Salvador</t>
-  </si>
-  <si>
-    <t>541687913@gmail.com</t>
-  </si>
-  <si>
-    <t>541687913b</t>
-  </si>
-  <si>
-    <t>André Miguel Namorado Canhoto Antunes</t>
-  </si>
-  <si>
-    <t>621873498@gmail.com</t>
-  </si>
-  <si>
-    <t>621873498b</t>
+    <t>FM</t>
   </si>
 </sst>
 </file>
@@ -192,14 +48,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -212,53 +68,42 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1.23456789E8</v>
+        <v>8.52461379E8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -492,358 +337,156 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2.35689741E8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1.02543687E8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.59126321E8</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.23456871E8</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4.56781235E8</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.8132461E8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.68134129E8</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6.87459213E8</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.94751364E8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2.54163987E8</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.54751239E8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5.41687913E8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6.21873498E8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
